--- a/assets/generated/model2/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model2/CustomerVehicleTripMap.xlsx
@@ -355,182 +355,182 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="B1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="C1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="D1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="E1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="F1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="B3">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="C3">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="D3">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="E3">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="F3">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="B4">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="C4">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="D4">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="E4">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="F4">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="B6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="C6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="D6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="E6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="F6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="B7">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="C7">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="D7">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="E7">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="F7">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="B8">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="C8">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="D8">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="E8">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="F8">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="B9">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="C9">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="D9">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="E9">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="F9">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -568,182 +568,182 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="B1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="C1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="D1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="E1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="F1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="B3">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="C3">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="D3">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="E3">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="F3">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B4">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C4">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D4">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E4">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F4">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="B5">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="C5">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="D5">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="E5">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="F5">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="B6">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="C6">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="D6">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="E6">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="F6">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="B8">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="C8">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="D8">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="E8">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="F8">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9873999999999995</v>
+        <v>0.9888</v>
       </c>
       <c r="B9">
-        <v>0.9873999999999995</v>
+        <v>0.9888</v>
       </c>
       <c r="C9">
-        <v>0.9873999999999995</v>
+        <v>0.9888</v>
       </c>
       <c r="D9">
-        <v>0.9873999999999995</v>
+        <v>0.9888</v>
       </c>
       <c r="E9">
-        <v>0.9873999999999995</v>
+        <v>0.9888</v>
       </c>
       <c r="F9">
-        <v>0.9873999999999995</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -781,182 +781,182 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="B1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="C1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="D1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="E1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="F1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
       <c r="B7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
       <c r="C7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
       <c r="D7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
       <c r="E7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
       <c r="F7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -994,182 +994,182 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="B1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="C1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="D1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="E1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="F1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="B3">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C3">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D3">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E3">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F3">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="B4">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C4">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D4">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E4">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F4">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="B5">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C5">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D5">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E5">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F5">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="B6">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C6">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D6">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E6">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F6">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="B7">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C7">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D7">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E7">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F7">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="B8">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C8">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D8">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E8">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F8">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="B9">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C9">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D9">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E9">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F9">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1207,182 +1207,182 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="B1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="C1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="D1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="E1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="F1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="B6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="C6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="D6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="E6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="F6">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1420,182 +1420,182 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="B1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="C1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="D1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="E1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="F1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F3">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F5">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F6">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F7">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F8">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F9">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1633,182 +1633,182 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="B1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="C1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="D1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="E1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
       <c r="F1">
-        <v>0.9874000000000001</v>
+        <v>0.9903</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="B2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="E2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="B3">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="C3">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="D3">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="E3">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="F3">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="B4">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="C4">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="D4">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="E4">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="F4">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="B5">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="C5">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="D5">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="E5">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="F5">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
       <c r="B6">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
       <c r="C6">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
       <c r="D6">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
       <c r="E6">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
       <c r="F6">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="B7">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="C7">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="D7">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="E7">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="F7">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="B8">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="C8">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="D8">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="E8">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="F8">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="B9">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="C9">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="D9">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="E9">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="F9">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1866,162 +1866,162 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B3">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C3">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D3">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E3">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F3">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="B4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F4">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F5">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B6">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C6">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D6">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E6">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F6">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F7">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B8">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C8">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D8">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E8">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F8">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="B9">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C9">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D9">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E9">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F9">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/assets/generated/model2/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model2/CustomerVehicleTripMap.xlsx
@@ -355,202 +355,202 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -568,202 +568,202 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -781,202 +781,202 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -994,202 +994,202 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1207,202 +1207,202 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1420,202 +1420,202 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1633,202 +1633,202 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0.9903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1866,182 +1866,182 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9888</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9887999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.9888</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9888</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.9888</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9888</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9888</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model2/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model2/CustomerVehicleTripMap.xlsx
@@ -475,7 +475,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.9999995974647448</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.014241441439463E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2009,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
